--- a/data/trans_bre/P2405-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2405-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,27%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 0,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; -0,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 6,31</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,36%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 2,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; -0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -45,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,27 +924,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,46; -0,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,18%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 0,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,37%</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; -0,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; -0,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; -0,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,57%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,18%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; -0,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; -0,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; -0,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,71; 9,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,07; -63,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,14; -51,74</t>
         </is>
       </c>
     </row>
